--- a/src/assets/template/plantilla.xlsx
+++ b/src/assets/template/plantilla.xlsx
@@ -1,49 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\S\Jhon\OP.SIRPSI.NewFront\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADF9DD26-5067-4A40-98AB-D251291F3514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31285D7F-9606-4490-890B-07520DA12E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9012BBCE-286F-4164-96E5-ACC5B6377F2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9012BBCE-286F-4164-96E5-ACC5B6377F2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos trabajadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Tipos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">numero </t>
-  </si>
-  <si>
-    <t>numero 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numero 3</t>
-  </si>
-  <si>
-    <t>numero 4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+  <si>
+    <t>TipoDocumento</t>
+  </si>
+  <si>
+    <t>NumeroDocumento</t>
+  </si>
+  <si>
+    <t>NombreCompleto</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>NumeroCelular</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>camilorivasorobio@gmail.com</t>
+  </si>
+  <si>
+    <t>Rivas Orobio</t>
+  </si>
+  <si>
+    <t>Camilo Andres</t>
+  </si>
+  <si>
+    <t>Tipo de trabajador</t>
+  </si>
+  <si>
+    <t>Grupo Forma A</t>
+  </si>
+  <si>
+    <t>Grupo Forma B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tipo de documento</t>
+  </si>
+  <si>
+    <t>Cédula de extranjería</t>
+  </si>
+  <si>
+    <t>Tipo Descripcion</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Permiso especial de permanencia</t>
+  </si>
+  <si>
+    <t>Nit</t>
+  </si>
+  <si>
+    <t>Cédula de ciudadanía</t>
+  </si>
+  <si>
+    <t>Carnet diplomático</t>
+  </si>
+  <si>
+    <t>Número de identificación tributario</t>
+  </si>
+  <si>
+    <t>Tarjeta de identidad</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>fercastro@gmail.com</t>
+  </si>
+  <si>
+    <t>TipoTrabajador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +135,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,14 +211,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,71 +569,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881B500D-B0F0-467F-97E3-57463044E949}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="4" customWidth="1"/>
+    <col min="8" max="12" width="19.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1017270383</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3116234821</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>101020201010</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3116234821</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{83BE71DB-3EF1-461E-B243-71F714BFE9B9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{C3476342-7812-4400-8FFA-DFB34B972F16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2E48AC4-264B-43F5-88A1-0FC25F47CAF5}">
+          <x14:formula1>
+            <xm:f>Tipos!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A3D85A-2BCA-4136-9661-BC7D50436374}">
+          <x14:formula1>
+            <xm:f>Tipos!$E$3:$E$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A241E66-B59A-483F-BED9-44CE922BD769}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>